--- a/database_design/magento24_notes.xlsx
+++ b/database_design/magento24_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TKH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTran14\Desktop\design\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E56CD-97C2-4679-A06D-E5820D1DB30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988781C-AC91-4EF3-8CA4-DF5CA470F3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20475" windowHeight="10890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="230">
   <si>
     <t>function</t>
   </si>
@@ -745,9 +745,6 @@
     <t>select, input, textarea, multiselect, boolean</t>
   </si>
   <si>
-    <t>int, decimal, vachar, text, datetime</t>
-  </si>
-  <si>
     <t>decimal(20,6)</t>
   </si>
   <si>
@@ -758,6 +755,24 @@
   </si>
   <si>
     <t>product_category_assignment</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>autoincrement</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int, decimal, varchar, text, datetime</t>
   </si>
 </sst>
 </file>
@@ -11668,10 +11683,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD0879-7070-416A-8C3F-2949C772A589}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11740,6 +11755,9 @@
       <c r="A5" t="s">
         <v>187</v>
       </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -11756,552 +11774,678 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" t="s">
         <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>185</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>186</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>203</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>209</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>218</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>201</v>
+      <c r="B27" t="s">
+        <v>202</v>
       </c>
       <c r="C27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>185</v>
+      </c>
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>184</v>
-      </c>
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" t="s">
-        <v>210</v>
-      </c>
-      <c r="D62" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>182</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" t="s">
-        <v>210</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>203</v>
+      </c>
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>212</v>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/database_design/magento24_notes.xlsx
+++ b/database_design/magento24_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTran14\Desktop\design\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988781C-AC91-4EF3-8CA4-DF5CA470F3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE326908-93A2-4EA9-9FCB-2256844C789C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Tables" sheetId="3" r:id="rId3"/>
     <sheet name="prod_detail_page" sheetId="4" r:id="rId4"/>
     <sheet name="ecommerce" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$882</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="230">
   <si>
     <t>function</t>
   </si>
@@ -742,9 +743,6 @@
     <t>enum of string</t>
   </si>
   <si>
-    <t>select, input, textarea, multiselect, boolean</t>
-  </si>
-  <si>
     <t>decimal(20,6)</t>
   </si>
   <si>
@@ -773,6 +771,9 @@
   </si>
   <si>
     <t>int, decimal, varchar, text, datetime</t>
+  </si>
+  <si>
+    <t>input, multiinput, select, multiselect, boolean, password</t>
   </si>
 </sst>
 </file>
@@ -803,12 +804,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -823,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,6 +846,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11685,8 +11693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD0879-7070-416A-8C3F-2949C772A589}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11774,15 +11782,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11790,7 +11798,7 @@
         <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11849,12 +11857,12 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11935,10 +11943,10 @@
         <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11951,18 +11959,18 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
         <v>227</v>
-      </c>
-      <c r="E30" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -12035,12 +12043,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -12116,12 +12124,12 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -12168,7 +12176,7 @@
         <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -12197,12 +12205,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -12249,7 +12257,7 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -12278,12 +12286,12 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -12330,7 +12338,7 @@
         <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -12359,12 +12367,12 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -12440,12 +12448,237 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791567FA-DC79-4F29-B499-EB58D44E0434}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/database_design/magento24_notes.xlsx
+++ b/database_design/magento24_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTran14\Desktop\design\database_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TKH\Desktop\design\database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988781C-AC91-4EF3-8CA4-DF5CA470F3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F774D8-D9EC-4682-B1E1-106A722ABF28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20475" windowHeight="10890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="231">
   <si>
     <t>function</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>int, decimal, varchar, text, datetime</t>
+  </si>
+  <si>
+    <t>option_id</t>
   </si>
 </sst>
 </file>
@@ -11683,10 +11686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD0879-7070-416A-8C3F-2949C772A589}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,7 +11968,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -11973,21 +11976,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
       <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
         <v>210</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
       </c>
       <c r="D35" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -11998,21 +12004,24 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>186</v>
       </c>
       <c r="B37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" t="s">
         <v>203</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
       </c>
       <c r="D37" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -12022,50 +12031,59 @@
       <c r="C38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
         <v>210</v>
       </c>
       <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -12076,12 +12094,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>186</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
         <v>203</v>
@@ -12089,8 +12107,11 @@
       <c r="D48" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -12100,39 +12121,42 @@
       <c r="C49" t="s">
         <v>202</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -12146,7 +12170,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -12157,7 +12181,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -12168,10 +12192,10 @@
         <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -12185,22 +12209,22 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>225</v>
       </c>
@@ -12210,7 +12234,7 @@
         <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -12249,7 +12273,7 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -12291,7 +12315,7 @@
         <v>182</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -12330,7 +12354,7 @@
         <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -12372,7 +12396,7 @@
         <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -12411,7 +12435,7 @@
         <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -12443,8 +12467,89 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>225</v>
       </c>
     </row>
